--- a/biology/Zoologie/Gazelle_de_Waller/Gazelle_de_Waller.xlsx
+++ b/biology/Zoologie/Gazelle_de_Waller/Gazelle_de_Waller.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Litocranius walleri
 La gazelle de Waller (Litocranius walleri), aussi appelée antilope girafe, gazelle-girafe ou gérénuk (mot provenant du Somali garanuug ou deero-garanuug, littéralement, la gazelle qui tète la girafe), est une espèce d'antilope de taille moyenne, caractérisée par son long cou qui fait penser à celui d'une girafe. La gazelle de Waller présente en outre des membres très fins, de grands yeux et de larges oreilles. Sa robe est presque blanche sur les jambes et le dessous du ventre et fauve clair sur la partie supérieure du corps. Le mâle est le seul à porter des cornes, qui sont fines, courtes et cylindriques.
@@ -516,7 +528,9 @@
           <t>Écologie et comportement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La gazelle de Waller est un animal diurne. Elle passe la plus grande partie de sa journée à ruminer.
 C'est un animal qui vit par groupe d'environ 10 individus, composé uniquement de femelles et de leurs petits. Les mâles sont solitaires et territoriaux. Ils ne cohabitent avec les femelles que pendant les périodes de rut. 
@@ -548,7 +562,9 @@
           <t>Nourriture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La gazelle de Waller se nourrit principalement de feuilles (animal folivore) qu'elle atteint en se dressant sur ses pattes arrière et en étirant sa langue. Cette particularité lui donne un avantage sur les autres ruminants d'Afrique car elle peut obtenir des ressources que les autres ne peuvent pas atteindre. 
 Elle peut ne pas boire pendant plusieurs jours comme les chameaux.
@@ -581,7 +597,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les femelles atteignent leur maturité sexuelle à un an et les mâles à 18 mois.
 La gazelle de Waller se reproduit toute l'année. La période de gestation est d'environ 165 jours, après laquelle nait généralement un petit. Les nouveau-nés pèsent environ 3 kg pour atteindre entre 20 et 50 kg à l'âge adulte.
@@ -613,9 +631,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (14 août 2023)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (14 août 2023) :
 sous-espèce Litocranius walleri sclateri Neumann, 1988
 sous-espèce Litocranius walleri walleri Brooke, 1878</t>
         </is>
